--- a/xlsx/廣島與長崎原子彈爆炸_intext.xlsx
+++ b/xlsx/廣島與長崎原子彈爆炸_intext.xlsx
@@ -29,7 +29,7 @@
     <t>第二次世界大戰</t>
   </si>
   <si>
-    <t>政策_政策_美國_廣島與長崎原子彈爆炸</t>
+    <t>体育运动_体育运动_犹太人大屠杀_廣島與長崎原子彈爆炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%88%AD</t>
@@ -10329,7 +10329,7 @@
         <v>424</v>
       </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
